--- a/va_facility_data_2025-02-20/Las Cruces VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Las%20Cruces%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Las Cruces VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Las%20Cruces%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcd37932d244b434caea0581a7be311ca"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2a386c1baa1840c5a5fed9f3b771a458"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd28a5659e0944893b0a629e8f1d49c7a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re7888ef5181242d1873ea2736357dcf4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R24f282f71c6b478db3b193595f56a092"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra92fd1e4b41344109d7f18e6aa7e8b45"/>
   </x:sheets>
 </x:workbook>
 </file>
